--- a/notification_configs/01_daily_status_reminders.xlsx
+++ b/notification_configs/01_daily_status_reminders.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:U9" headerRowCount="1">
-  <autoFilter ref="A1:U9"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:Y9" headerRowCount="1">
+  <autoFilter ref="A1:Y9"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Vendor_Name"/>
@@ -149,6 +149,10 @@
     <tableColumn id="19" name="Active"/>
     <tableColumn id="20" name="Created_Date"/>
     <tableColumn id="21" name="Last_Updated"/>
+    <tableColumn id="22" name="Submission_Status"/>
+    <tableColumn id="23" name="Reminder_Status"/>
+    <tableColumn id="24" name="Send_Notification"/>
+    <tableColumn id="25" name="Update_Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -443,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +476,10 @@
     <col width="8" customWidth="1" min="19" max="19"/>
     <col width="14" customWidth="1" min="20" max="20"/>
     <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="17" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -580,6 +588,26 @@
           <t>Last_Updated</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Submission_Status</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Reminder_Status</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Send_Notification</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Update_Source</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -653,6 +681,9 @@
           <t>vendor_emp001</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -675,7 +706,27 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
+          <t>2025-09-16 23:18:05</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>SUBMITTED</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>REALTIME_SUBMISSION</t>
         </is>
       </c>
     </row>
@@ -751,6 +802,9 @@
           <t>vendor_emp002</t>
         </is>
       </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -775,6 +829,18 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -849,6 +915,9 @@
           <t>vendor_emp003</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -873,6 +942,18 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -947,6 +1028,9 @@
           <t>vendor_emp004</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -971,6 +1055,18 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1045,6 +1141,9 @@
           <t>vendor_emp005</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -1069,6 +1168,18 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1143,6 +1254,9 @@
           <t>vendor_mtk34711</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -1167,6 +1281,18 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1241,6 +1367,9 @@
           <t>vendor_vnd001</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -1265,6 +1394,18 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -1339,6 +1480,9 @@
           <t>vendor_vnd002</t>
         </is>
       </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -1363,6 +1507,18 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/01_daily_status_reminders.xlsx
+++ b/notification_configs/01_daily_status_reminders.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:Y9" headerRowCount="1">
-  <autoFilter ref="A1:Y9"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:U6" headerRowCount="1">
+  <autoFilter ref="A1:U6"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Vendor_Name"/>
@@ -149,10 +149,6 @@
     <tableColumn id="19" name="Active"/>
     <tableColumn id="20" name="Created_Date"/>
     <tableColumn id="21" name="Last_Updated"/>
-    <tableColumn id="22" name="Submission_Status"/>
-    <tableColumn id="23" name="Reminder_Status"/>
-    <tableColumn id="24" name="Send_Notification"/>
-    <tableColumn id="25" name="Update_Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -447,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,9 +451,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
@@ -469,17 +465,13 @@
     <col width="15" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
     <col width="50" customWidth="1" min="14" max="14"/>
-    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="21" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="8" customWidth="1" min="19" max="19"/>
     <col width="14" customWidth="1" min="20" max="20"/>
     <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="17" customWidth="1" min="23" max="23"/>
-    <col width="19" customWidth="1" min="24" max="24"/>
-    <col width="21" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -588,31 +580,11 @@
           <t>Last_Updated</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Submission_Status</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Reminder_Status</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Send_Notification</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Update_Source</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VENDOR_EMP001_20250914</t>
+          <t>VENDOR_EMP001_20250918</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -681,9 +653,6 @@
           <t>vendor_emp001</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -701,39 +670,19 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-09-16 23:18:05</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>SUBMITTED</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>REALTIME_SUBMISSION</t>
+          <t>2025-09-18 22:05:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VENDOR_EMP002_20250914</t>
+          <t>VENDOR_EMP002_20250918</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -802,9 +751,6 @@
           <t>vendor_emp002</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -822,31 +768,19 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
+          <t>2025-09-18 22:05:12</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VENDOR_EMP003_20250914</t>
+          <t>VENDOR_EMP003_20250918</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -915,9 +849,6 @@
           <t>vendor_emp003</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -935,31 +866,19 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
+          <t>2025-09-18 22:05:12</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VENDOR_EMP004_20250914</t>
+          <t>VENDOR_EMP004_20250918</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1028,9 +947,6 @@
           <t>vendor_emp004</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -1048,31 +964,19 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
+          <t>2025-09-18 22:05:12</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VENDOR_EMP005_20250914</t>
+          <t>VENDOR_EMP005_20250918</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1141,9 +1045,6 @@
           <t>vendor_emp005</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -1161,364 +1062,13 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VENDOR_MTK34711_20250914</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>chandresh.kerkar21@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MTK34711</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bo</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PandaPaths</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>MTK34710</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Please submit your daily attendance status - Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>vendor_mtk34711</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>VENDOR_VND001_20250914</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>john.doe@vendor.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VND001</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MTB_WCS_MSE7_MS1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ABC Solutions</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Please submit your daily attendance status - John Doe</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>vendor_vnd001</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>VENDOR_VND002_20250914</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>jane.smith@vendor.com</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Jane Smith</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VND002</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MTB_WCS_MSE7_MS2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>XYZ Technologies</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Please submit your daily attendance status - Jane Smith</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>vendor_vnd002</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
+          <t>2025-09-18 22:05:12</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/01_daily_status_reminders.xlsx
+++ b/notification_configs/01_daily_status_reminders.xlsx
@@ -451,9 +451,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
@@ -465,7 +465,7 @@
     <col width="15" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
     <col width="50" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="21" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
@@ -584,7 +584,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VENDOR_EMP001_20250918</t>
+          <t>VENDOR_EMP001_20250919</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -670,19 +670,19 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VENDOR_EMP002_20250918</t>
+          <t>VENDOR_EMP002_20250919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VENDOR_EMP003_20250918</t>
+          <t>VENDOR_EMP004_20250919</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mike.vendor@company.com</t>
+          <t>sarah.vendor@company.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mike Rodriguez</t>
+          <t>Sarah Parker</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EMP003</t>
+          <t>EMP004</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Quality Assurance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>InfraCorp Ltd</t>
+          <t>QualityCorp Inc</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -841,12 +841,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Please submit your daily attendance status - Mike Rodriguez</t>
+          <t>Please submit your daily attendance status - Sarah Parker</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>vendor_emp003</t>
+          <t>vendor_emp004</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -866,49 +866,49 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VENDOR_EMP004_20250918</t>
+          <t>VENDOR_EMP005_20250919</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sarah.vendor@company.com</t>
+          <t>david.vendor@company.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sarah Parker</t>
+          <t>David Kim</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EMP004</t>
+          <t>EMP005</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Quality Assurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>QualityCorp Inc</t>
+          <t>TechCorp Solutions</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -939,12 +939,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Please submit your daily attendance status - Sarah Parker</t>
+          <t>Please submit your daily attendance status - David Kim</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>vendor_emp004</t>
+          <t>vendor_emp005</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -964,44 +964,44 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VENDOR_EMP005_20250918</t>
+          <t>VENDOR_MTK34711_20250919</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>david.vendor@company.com</t>
+          <t>chandresh.kerkar1@gmail.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>David Kim</t>
+          <t>Chandresh Kerkar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EMP005</t>
+          <t>MTK34711</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Bo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TechCorp Solutions</t>
+          <t>PandaPaths</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Please submit your daily attendance status - David Kim</t>
+          <t>Please submit your daily attendance status - Chandresh Kerkar</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>vendor_emp005</t>
+          <t>vendor_mtk34711</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>

--- a/notification_configs/01_daily_status_reminders.xlsx
+++ b/notification_configs/01_daily_status_reminders.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:U6" headerRowCount="1">
-  <autoFilter ref="A1:U6"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:Z5" headerRowCount="1">
+  <autoFilter ref="A1:Z5"/>
+  <tableColumns count="26">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Vendor_Name"/>
@@ -149,6 +149,11 @@
     <tableColumn id="19" name="Active"/>
     <tableColumn id="20" name="Created_Date"/>
     <tableColumn id="21" name="Last_Updated"/>
+    <tableColumn id="22" name="Submission_Status"/>
+    <tableColumn id="23" name="Reminder_Status"/>
+    <tableColumn id="24" name="Send_Notification"/>
+    <tableColumn id="25" name="Update_Source"/>
+    <tableColumn id="26" name="Daily_Status_Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -443,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,9 +456,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
@@ -465,13 +470,18 @@
     <col width="15" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
     <col width="50" customWidth="1" min="14" max="14"/>
-    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="21" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="8" customWidth="1" min="19" max="19"/>
     <col width="14" customWidth="1" min="20" max="20"/>
     <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -580,6 +590,31 @@
           <t>Last_Updated</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Submission_Status</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Reminder_Status</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Send_Notification</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Update_Source</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Daily_Status_Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -653,6 +688,9 @@
           <t>vendor_emp001</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -675,7 +713,32 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
+          <t>2025-09-19 01:06:06</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>SUBMITTED_PENDING</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>SUBMITTED_PENDING</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>FOLLOWUP</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>VENDOR_SUBMISSION</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -751,6 +814,9 @@
           <t>vendor_emp002</t>
         </is>
       </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -773,8 +839,23 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
-        </is>
+          <t>2025-09-19 00:47:04</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -849,6 +930,9 @@
           <t>vendor_emp004</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -871,8 +955,23 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
-        </is>
+          <t>2025-09-19 00:47:04</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -947,6 +1046,9 @@
           <t>vendor_emp005</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -969,106 +1071,23 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>VENDOR_MTK34711_20250919</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>chandresh.kerkar1@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MTK34711</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bo</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PandaPaths</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Please submit your daily attendance status - Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>vendor_mtk34711</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:08:23</t>
-        </is>
+          <t>2025-09-19 00:47:04</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/01_daily_status_reminders.xlsx
+++ b/notification_configs/01_daily_status_reminders.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:Z5" headerRowCount="1">
-  <autoFilter ref="A1:Z5"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DailyStatusReminders" displayName="DailyStatusReminders" ref="A1:U4" headerRowCount="1">
+  <autoFilter ref="A1:U4"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Vendor_Name"/>
@@ -149,11 +149,6 @@
     <tableColumn id="19" name="Active"/>
     <tableColumn id="20" name="Created_Date"/>
     <tableColumn id="21" name="Last_Updated"/>
-    <tableColumn id="22" name="Submission_Status"/>
-    <tableColumn id="23" name="Reminder_Status"/>
-    <tableColumn id="24" name="Send_Notification"/>
-    <tableColumn id="25" name="Update_Source"/>
-    <tableColumn id="26" name="Daily_Status_Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -448,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +472,6 @@
     <col width="8" customWidth="1" min="19" max="19"/>
     <col width="14" customWidth="1" min="20" max="20"/>
     <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="19" customWidth="1" min="24" max="24"/>
-    <col width="19" customWidth="1" min="25" max="25"/>
-    <col width="19" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -590,51 +580,26 @@
           <t>Last_Updated</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Submission_Status</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Reminder_Status</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Send_Notification</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Update_Source</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Daily_Status_Date</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VENDOR_EMP001_20250919</t>
+          <t>VENDOR_EMP002_20250919</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>john.vendor@company.com</t>
+          <t>jane.vendor@company.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Jane Wilson</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EMP001</t>
+          <t>EMP002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -680,16 +645,13 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Please submit your daily attendance status - John Smith</t>
+          <t>Please submit your daily attendance status - Jane Wilson</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>vendor_emp001</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
+          <t>vendor_emp002</t>
+        </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -713,69 +675,44 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-09-19 01:06:06</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>SUBMITTED_PENDING</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>SUBMITTED_PENDING</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>FOLLOWUP</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>VENDOR_SUBMISSION</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
+          <t>2025-09-19 01:15:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VENDOR_EMP002_20250919</t>
+          <t>VENDOR_EMP004_20250919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jane.vendor@company.com</t>
+          <t>sarah.vendor@company.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jane Wilson</t>
+          <t>Sarah Parker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EMP002</t>
+          <t>EMP004</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Quality Assurance</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TechCorp Solutions</t>
+          <t>QualityCorp Inc</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>M001</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -806,16 +743,13 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Please submit your daily attendance status - Jane Wilson</t>
+          <t>Please submit your daily attendance status - Sarah Parker</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>vendor_emp002</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v/>
+          <t>vendor_emp004</t>
+        </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -839,59 +773,44 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-09-19 00:47:04</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
+          <t>2025-09-19 01:15:03</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VENDOR_EMP004_20250919</t>
+          <t>VENDOR_EMP005_20250919</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sarah.vendor@company.com</t>
+          <t>david.vendor@company.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sarah Parker</t>
+          <t>David Kim</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EMP004</t>
+          <t>EMP005</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Quality Assurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>QualityCorp Inc</t>
+          <t>TechCorp Solutions</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -922,16 +841,13 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Please submit your daily attendance status - Sarah Parker</t>
+          <t>Please submit your daily attendance status - David Kim</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>vendor_emp004</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v/>
+          <t>vendor_emp005</t>
+        </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -955,139 +871,8 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-09-19 00:47:04</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>VENDOR_EMP005_20250919</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>david.vendor@company.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>David Kim</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EMP005</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>TechCorp Solutions</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Please submit your daily attendance status - David Kim</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>vendor_emp005</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:47:04</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
+          <t>2025-09-19 01:15:03</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/01_daily_status_reminders.xlsx
+++ b/notification_configs/01_daily_status_reminders.xlsx
@@ -675,7 +675,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
+          <t>2025-09-19 01:30:36</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
+          <t>2025-09-19 01:30:36</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
+          <t>2025-09-19 01:30:36</t>
         </is>
       </c>
     </row>
